--- a/Ejemplo de alarmas CMM.xlsx
+++ b/Ejemplo de alarmas CMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://claromovilco-my.sharepoint.com/personal/38514121_claro_com_co/Documents/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10C4682B-998C-4943-9AF5-F9F2257A379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A2CAE2-F8E1-4EE6-98F2-1B3F3F5757D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31245" yWindow="2310" windowWidth="15375" windowHeight="7785" xr2:uid="{40E625EC-A08A-418E-B1F6-0A275E2A6699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{40E625EC-A08A-418E-B1F6-0A275E2A6699}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="385">
   <si>
     <t>Nombre del elemento</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Significado</t>
   </si>
   <si>
-    <t>Acciones</t>
-  </si>
-  <si>
     <t>CMM</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>Todos los enlaces de señalización del conjunto de enlaces están indisponibles. No hay conexión directa con la central asociada a la que está conectado este conjunto de enlaces. Si existe una conexión alternativa entre las centrales, el tráfico se enruta a dicha conexión. Si la alarma 2064 ROUTE SET UNAVAILABLE también está activada, no hay conexión con la central asociada ni con ninguna otra central alcanzada a través de este conjunto de enlaces de señalización.</t>
-  </si>
-  <si>
-    <t>Debe revisa el estado de la señalización y el link asociado que esta alarmado.  Verifique que no existe caida total de la ruta, de lo contrario escale con criticidad alta.  Para mas información lea el manual de la alarma en el siguiente link:  alarma12273.com</t>
   </si>
   <si>
     <t>LSS_memoryOverload</t>
@@ -93,14 +87,2291 @@
 Los umbrales predeterminados actuales son: Menor - 80, Mayor - 85, Crítico - 90.</t>
   </si>
   <si>
-    <t>Escalar al equipo de Back ofiice con criticidad alta.  Se debe validar el proceso que esta consumiento la memoria del elemento.</t>
+    <t>Debe revisar el estado de la señalización y el link asociado que esta alarmado.  Verifique que no existe caida total de la ruta, de lo contrario escale con criticidad alta.  Para mas información lea el manual de la alarma en el siguiente link:  alarma12273.com</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Ccs7ProgramBlockDataFailure</t>
+  </si>
+  <si>
+    <t>ErrorInCcsFile</t>
+  </si>
+  <si>
+    <t>ErrorInProtocolAnalysisFile</t>
+  </si>
+  <si>
+    <t>ProtocolDisabled</t>
+  </si>
+  <si>
+    <t>MapProcedureFailureHigh</t>
+  </si>
+  <si>
+    <t>SgsnChargingResendBufferFull</t>
+  </si>
+  <si>
+    <t>NoOperationalChargingGatewayNetworkElement</t>
+  </si>
+  <si>
+    <t>RncContinuouslyOutOfServiceInSgsn</t>
+  </si>
+  <si>
+    <t>ApplicationIpAssociationMissing</t>
+  </si>
+  <si>
+    <t>ChaOutOfUse</t>
+  </si>
+  <si>
+    <t>ChaOverwrtOfUntransfiles</t>
+  </si>
+  <si>
+    <t>PapsApplicationCpuOverload</t>
+  </si>
+  <si>
+    <t>PapsApplicationCpuCriticalOverload</t>
+  </si>
+  <si>
+    <t>PapsPortMirrorCriticalOverload</t>
+  </si>
+  <si>
+    <t>PapsAttachedSubscribersMaximumThresholdReached</t>
+  </si>
+  <si>
+    <t>Paps2gAttachedSubscribersMaximumThresholdReached</t>
+  </si>
+  <si>
+    <t>Paps3gAttachedSubscribersMaximumThresholdReached</t>
+  </si>
+  <si>
+    <t>PapsApplicationPrbMessageQueueCriticalOverload</t>
+  </si>
+  <si>
+    <t>PapsApplicationMessageStormDetected</t>
+  </si>
+  <si>
+    <t>LSS_memoryExhaustion</t>
+  </si>
+  <si>
+    <t>LSS_cardConnectionLost</t>
+  </si>
+  <si>
+    <t>LSS_tcpDown</t>
+  </si>
+  <si>
+    <t>LSS_threadsExhausted</t>
+  </si>
+  <si>
+    <t>LSS_ethernetLinkDown</t>
+  </si>
+  <si>
+    <t>LSS_diamLinkDown</t>
+  </si>
+  <si>
+    <t>LSS_fqdnError</t>
+  </si>
+  <si>
+    <t>LSS_cpuOverload</t>
+  </si>
+  <si>
+    <t>LSS_cpiAlrmCritical</t>
+  </si>
+  <si>
+    <t>LSS_cpiAlrmMajor</t>
+  </si>
+  <si>
+    <t>LSS_cpiAlrmMinor</t>
+  </si>
+  <si>
+    <t>LSS_numberOfTuplesInUse</t>
+  </si>
+  <si>
+    <t>LSS_processNotStarted</t>
+  </si>
+  <si>
+    <t>LSS_externalConnectivity</t>
+  </si>
+  <si>
+    <t>LSS_cpiAttachFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiUpdateBearerFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiServiceRequestFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiCreateDedicatedBearerFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiUpdateDedicatedBearerFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiDeactivateDedBearerFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOwNoRelocFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOwSGWrelocFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOwMMErelocFailures_atSource</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOwMMErelocFailures_atTarget</t>
+  </si>
+  <si>
+    <t>LSS_cpiTauFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiGTPcResponseTO_S11</t>
+  </si>
+  <si>
+    <t>LSS_cpiGTPcResponseTO_S10</t>
+  </si>
+  <si>
+    <t>LSS_cpiS1MMEconnFailures</t>
+  </si>
+  <si>
+    <t>LSS_sheddingOverload</t>
+  </si>
+  <si>
+    <t>LSS_softwareAllocatedResourceOverload</t>
+  </si>
+  <si>
+    <t>LSS_internalCommunicationFailure</t>
+  </si>
+  <si>
+    <t>LSS_cpiGTPcResponseTO_Sv</t>
+  </si>
+  <si>
+    <t>LSS_cpiGTPcResponseTO_Gn</t>
+  </si>
+  <si>
+    <t>LSS_cpiNoPSHOFailuresOverSv</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOFailuresTo3G2GOverGn</t>
+  </si>
+  <si>
+    <t>LSS_cpiAttachFailuresSysRelated</t>
+  </si>
+  <si>
+    <t>LSS_cpiServiceReqFailuresSysRelated</t>
+  </si>
+  <si>
+    <t>LSS_cpiTauFailuresInterSgw</t>
+  </si>
+  <si>
+    <t>LSS_cpiTauFailuresInterMme</t>
+  </si>
+  <si>
+    <t>LSS_cpiFailuresOverSGs</t>
+  </si>
+  <si>
+    <t>LSS_cpiEIRfailuresS13</t>
+  </si>
+  <si>
+    <t>LSS_mmeConnectionLost</t>
+  </si>
+  <si>
+    <t>LSS_cpiTauFailuresInterMmeInterSgw</t>
+  </si>
+  <si>
+    <t>LSS_mmeControllerOOS</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailurestoUTRANoverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresToGERANoverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresFromUTRANoverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresFromGERANoverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresRAUto2G3GsameSgwOverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresRAUto2G3GnewSgwOverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiGTPcResponseTO_S3</t>
+  </si>
+  <si>
+    <t>LSS_cpiMMEUEcapacity</t>
+  </si>
+  <si>
+    <t>LSS_vmOverload</t>
+  </si>
+  <si>
+    <t>LSS_cpiMobileTermLocRequestFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiNetwrkInducedLocRequestFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiWarnMsgDeliverySBcFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiWarnMsgDeliveryS1MMEFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiStopWarnMsgDeliverySBcFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiStopWarnMsgDeliveryS1MMEFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionStartSmFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionStartM3FailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionStopSmFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionStopM3FailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionUpdateSmFailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiMBMSSessionUpdateM3FailureRate</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOfailuresRAUto2G3GOverS3</t>
+  </si>
+  <si>
+    <t>LSS_cpiS3TauFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiS3TauFailuresIntraSGW</t>
+  </si>
+  <si>
+    <t>LSS_cpiS3TauFailuresInterSgw</t>
+  </si>
+  <si>
+    <t>LSS_cpiExtServiceRequestFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiExtServiceReqFailuresSysRelated</t>
+  </si>
+  <si>
+    <t>LSS_cpiPSHOFailuresOverSv</t>
+  </si>
+  <si>
+    <t>LSS_adnsQueryFailureCaching</t>
+  </si>
+  <si>
+    <t>LSS_cmasFailure</t>
+  </si>
+  <si>
+    <t>LSS_cmasSendFailure</t>
+  </si>
+  <si>
+    <t>LSS_cmasReceiveFailure</t>
+  </si>
+  <si>
+    <t>LSS_cpiAttachWithSGWreselection</t>
+  </si>
+  <si>
+    <t>LSS_cpiAttachWithPGWreselection</t>
+  </si>
+  <si>
+    <t>LSS_cpiPDNconnWithPGWreselection</t>
+  </si>
+  <si>
+    <t>LSS_cpiHSSreselection</t>
+  </si>
+  <si>
+    <t>LSS_excessiveExternalLinksDown</t>
+  </si>
+  <si>
+    <t>LSS_tunnelMonitorHeartbeatFailure</t>
+  </si>
+  <si>
+    <t>cpiSgsn2GattachFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn3GattachFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn2GpagingFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn3GpagingFailures</t>
+  </si>
+  <si>
+    <t>LSS_cpiHOFailuresToLTEOverGn</t>
+  </si>
+  <si>
+    <t>LSS_ldapServerConnectionLost</t>
+  </si>
+  <si>
+    <t>LSS_sgwResourceDegraded</t>
+  </si>
+  <si>
+    <t>LSS_externalCommFailure</t>
+  </si>
+  <si>
+    <t>LSS_excessiveExtCommFailure</t>
+  </si>
+  <si>
+    <t>LSS_imConnectFailure</t>
+  </si>
+  <si>
+    <t>LSS_cpiSgsnGtpcResponseTO_S3</t>
+  </si>
+  <si>
+    <t>LSS_cpiSgsnGtpcResponseTO_S16</t>
+  </si>
+  <si>
+    <t>LSS_cpiSgsnGtpcResponseTO_S4</t>
+  </si>
+  <si>
+    <t>cpiSgsn2GrauFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn3GrauFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn2GpdpActFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn3GpdpActFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn2GpdpDeactmsFailures</t>
+  </si>
+  <si>
+    <t>cpiSgsn3GpdpDeactmsFailures</t>
+  </si>
+  <si>
+    <t>LSS_BondingInterfaceDown</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS1mme</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS6ad</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS11</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS10</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownGn</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSgs</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSv</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownX2</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownX1_1</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS3</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS13</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownM3</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSm</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSlg</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSls</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSbc</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS102</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownRs10</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS4</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS16</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownSgsLite</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownS11u</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownT6a</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilityS1mme</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilityS6ad</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilitySgs</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilityS13</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilityM3</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilitySlg</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilitySls</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilitySbc</t>
+  </si>
+  <si>
+    <t>LSS_pathAvailabilityT6a</t>
+  </si>
+  <si>
+    <t>LSS_VSRLinkDown</t>
+  </si>
+  <si>
+    <t>LSS_allNssfDownForAvailability</t>
+  </si>
+  <si>
+    <t>LSS_allNssfDownForNfSelection</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownNR10</t>
+  </si>
+  <si>
+    <t>LSS_externalLinkDownN26</t>
+  </si>
+  <si>
+    <t>LSS_allMgmtServicesDown</t>
+  </si>
+  <si>
+    <t>LSS_allDiscServicesDown</t>
+  </si>
+  <si>
+    <t>SystemResourceOverload</t>
+  </si>
+  <si>
+    <t>VMCpuMemoryFailure</t>
+  </si>
+  <si>
+    <t>BootParametersMisconfigured</t>
+  </si>
+  <si>
+    <t>FrameSizeProblem</t>
+  </si>
+  <si>
+    <t>LicensedLimitExceeded</t>
+  </si>
+  <si>
+    <t>CorruptImageFile</t>
+  </si>
+  <si>
+    <t>AuxiliaryServerStatus</t>
+  </si>
+  <si>
+    <t>SSHServerPreserveKeyFailure (406)</t>
+  </si>
+  <si>
+    <t>ClientDelegateServerStatus</t>
+  </si>
+  <si>
+    <t>AtcaPowerSupplyFailure (1125)</t>
+  </si>
+  <si>
+    <t>ReconfigFailure</t>
+  </si>
+  <si>
+    <t>RadiusOperStatusDown</t>
+  </si>
+  <si>
+    <t>NodeSuspended</t>
+  </si>
+  <si>
+    <t>AggregatedVFLPortDown</t>
+  </si>
+  <si>
+    <t>TacPlusOperStatusDown</t>
+  </si>
+  <si>
+    <t>CriticalEvent (12375)</t>
+  </si>
+  <si>
+    <t>CriticalState (12376)</t>
+  </si>
+  <si>
+    <t>HddCriticalState (12377)</t>
+  </si>
+  <si>
+    <t>NonRecoverableEvent (12379)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical Major Minor</t>
+  </si>
+  <si>
+    <t>Critical Major Warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Critical Major Minor Warning</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>Un bloque de programa del sistema de señalización de canal común ha detectado un error lógico en un archivo que contiene datos semipermanentes. La configuración de la red de señalización podría estar parcialmente desordenada. Como resultado, el tráfico de señalización hacia algún punto de señalización podría estar bloqueado.</t>
+  </si>
+  <si>
+    <t>Se ha detectado un fallo en un archivo de Señalización de Canal Común (CCS). Una de las tablas de enrutamiento contiene datos ilógicos: hay al menos un enlace de señalización inaccesible. El mensaje de señalización que generó la alarma se ha eliminado. La alarma también puede deberse a un fallo en el calentamiento o la actualización de los archivos de trabajo de CCS. Esto ha provocado que los archivos de trabajo del PAPS se reactiven. Si el calentamiento de los archivos del PAPS falla, la unidad se reinicia. Cuando falla el calentamiento, se emite la alarma 2134: ARM-UP ERROR IN CCSEND PROGRAM BLOCK</t>
+  </si>
+  <si>
+    <t>Escalar al equipo de Back office con criticidad alta.  Se debe validar el proceso que esta consumiento la memoria del elemento.</t>
+  </si>
+  <si>
+    <t>Escalar al equipo de Back office con criticidad alta.  Se debe validar el proceso que esta generando la alarma.</t>
+  </si>
+  <si>
+    <t>El sistema emite esta alarma si se ha producido un error en el manejo de archivos de la gestión de parámetros de protocolo. El error se debe a un mal funcionamiento del sistema. La alarma puede emitirse cuando se gestionan los archivos VM1FIL, VM3FIL, VM4FIL, VM5FIL, VM6FIL y VM7FIL. Existen variantes de estos archivos para las diferentes partes de usuario de TCAP (MAP, CAP). Si se emite en relación con los archivos VM1FIL, VM5FIL, VM6FIL y VM7FIL, la alarma suele impedir el tráfico del protocolo. El error no afecta a la facturación ni a los anuncios. Si se emiten alarmas en relación con los archivos VM3FIL, VM4FIL y VM5FIL, suele deberse a que los análisis de direcciones de la gestión de parámetros de protocolo han presentado fallos. En este caso, los análisis no pueden gestionarse de la forma habitual con los comandos cmm map*. Los análisis de direcciones solo pueden gestionarse con el comando cmm en relación con el protocolo MAP. El motivo de la alarma puede ser un error en el sistema de archivos (falló la lectura del archivo) o que el contenido de los archivos se haya dañado (los archivos contienen datos incorrectos).</t>
+  </si>
+  <si>
+    <t>protocol disabled
+An error has occurred in the handling of the protocol's subsystems or in the reading of the data related to the subsystems. The reason for the alarm may be either the malfunctioning of the system or a faulty configuration. The alarm means that the traffic of the protocol has been either totally or partly congested. The error situation has no direct effect on charging or statistics. Possible error situations are listed below:
+- The protocol does not recognize the network element in which it is installed. The protocol can function only in the  MSC/VLR- and HLR/EIR-network elements.
+- The subsystems which the protocol uses have not been created to any of the signalling networks (IN0, IN1, NA0, NA1).
+- As regards a particular subsystem, the protocol fails to register for any of the signalling networks. In this case the system issues also alarm 2596, SCCP REGISTRATION ERROR, which tells you why the registration was rejected. In some cases the system also issues alarm 2646, PROTOCOL ROUTING FAILURE.
+- The protocol cannot read the address information it needs from the HRNFIL file. In this case the system issues also alarm 2562, NUMBER NOT FOUND FROM HRNFIL OR INVALID DATA. The protocol needs the following data:
+-  country code, type E.164
+-  network code, type E.164
+-  MSC address (only in MSC/VLR), type E.164
+-  VLR address (only in MSC/VLR), type E.164
+-  HLR address (only in HLR), type E.164
+-  EIR address (only in HLR which also contains EIR), type E.164
+Cause:
+An error has occurred in the handling of the protocol's subsystems or in the reading of the data related to the subsystems. The reason for the alarm may be either the malfunctioning of the system or a faulty configuration. The alarm means that the traffic of the protocol has been either totally or partly congested. The error situation has no direct effect on charging or statistics. Possible error situations are listed below:
+- The protocol does not recognize the network element in which it is installed. The protocol can function only in the  MSC/VLR- and HLR/EIR-network elements.
+- The subsystems which the protocol uses have not been created to any of the signalling networks (IN0, IN1, NA0, NA1).
+- As regards a particular subsystem, the protocol fails to register for any of the signalling networks. In this case the system issues also alarm 2596, SCCP REGISTRATION ERROR, which tells you why the registration was rejected. In some cases the system also issues alarm 2646, PROTOCOL ROUTING FAILURE.
+- The protocol cannot read the address information it needs from the HRNFIL file. In this case the system issues also alarm 2562, NUMBER NOT FOUND FROM HRNFIL OR INVALID DATA. The protocol needs the following data:
+-  country code, type E.164
+-  network code, type E.164
+-  MSC address (only in MSC/VLR), type E.164
+-  VLR address (only in MSC/VLR), type E.164
+-  HLR address (only in HLR), type E.164
+-  EIR address (only in HLR which also contains EIR), type E.164</t>
+  </si>
+  <si>
+    <t>map procedure failure high
+MAP procedure -specific error ratio counter has exceeded the highest limit set by the operator in the MAP parameter management. If the alarm is set, it means that as regards a particular operation, the number of error causes indicating that the system may not be functioning correctly is too high in relation to the amount of activated operations. The most common error situations are listed below:
+- There is a compatibility problem between two network elements. One of the network elements has been sending erroneous data, or a feature has been commissioned so that the data which it requires is being sent to network elements which do not support the feature.
+- The subscriber in unknown in the HLR or the VLR.
+- Another MAP-dialogue, related to the MAP-dialogue in question, has failed. If the operation in question has been received from the network, the system may also issue alarm 1574, DATA ERROR FOUND BY MAP. The error situation has no direct effect on charging or announcements. This alarm is not valid for CMM 17.5 since MAP statistics are not supported.
+Cause:
+MAP procedure -specific error ratio counter has exceeded the highest limit set by the operator in the MAP parameter management. If the alarm is set, it means that as regards a particular operation, the number of error causes indicating that the system may not be functioning correctly is too high in relation to the amount of activated operations. The most common error situations are listed below:
+- There is a compatibility problem between two network elements. One of the network elements has been sending erroneous data, or a feature has been commissioned so that the data which it requires is being sent to network elements which do not support the feature.
+- The subscriber in unknown in the HLR or the VLR.
+- Another MAP-dialogue, related to the MAP-dialogue in question, has failed. If the operation in question has been received from the network, the system may also issue alarm 1574, DATA ERROR FOUND BY MAP. The error situation has no direct effect on charging or announcements. This alarm is not valid for CMM 17.5 since MAP statistics are not supported.</t>
+  </si>
+  <si>
+    <t>sgsn charging resend buffer full
+CDR Send Buffer is full. Alarm 3076 was set before alarm 3009 and corrective actions should have been taken. The result of the fault is that now the CDR Send Buffer storing capability is lost. This means that closed CDRs will be lost (Check SGSN Statistics; CDR Measurement). CDRs stored in the Send Buffer before it becomes full are saved. These CDRs will be transferred when the problem is solved. One or more Charging Gateway network elements may be inoperative due to overload with heavy processing tasks. This means that, for example, CDR generation rate is growing, or there have been several exceptions that cause continual CDR generation peaks. Possible exeptions are GGSN reset, restart of the Ga subsystem on NECC , PAPS reset and manual CDR generation. GPRS traffic and collection of CDRs remain unaffected.
+Cause:
+CDR Send Buffer is full. Alarm 3076 was set before alarm 3009 and corrective actions should have been taken. The result of the fault is that now the CDR Send Buffer storing capability is lost. This means that closed CDRs will be lost (Check SGSN Statistics; CDR Measurement). CDRs stored in the Send Buffer before it becomes full are saved. These CDRs will be transferred when the problem is solved. One or more Charging Gateway network elements may be inoperative due to overload with heavy processing tasks. This means that, for example, CDR generation rate is growing, or there have been several exceptions that cause continual CDR generation peaks. Possible exeptions are GGSN reset, restart of the Ga subsystem on NECC , PAPS reset and manual CDR generation. GPRS traffic and collection of CDRs remain unaffected.</t>
+  </si>
+  <si>
+    <t>no operational charging gateway network element
+This alarm is set when no operational CG NE IP addresses can be found in the CGDFIL parameter file. This can mean that there really are no operational CG NEs (according to the CGDFIL parameter file) on the Intra-PLMN IP backbone. GPRS traffic itself remains unaffected.
+Cause:
+This alarm is set when no operational CG NE IP addresses can be found in the CGDFIL parameter file. This can mean that there really are no operational CG NEs (according to the CGDFIL parameter file) on the Intra-PLMN IP backbone. GPRS traffic itself remains unaffected.</t>
+  </si>
+  <si>
+    <t>rnc continuously out of service in sgsn
+The Radio Network Controller (RNC) does not answer the RESET messages sent by the SGSN and is in a state in which it cannot carry any traffic. The SGSN issues the alarm after sending the maximum amount of RESET messages, after which the RESET messages are no longer sent. This means that the system does not try to recover from the situation by itself anymore; the user has to resolve the situation.
+Cause:
+The Radio Network Controller (RNC) does not answer the RESET messages sent by the SGSN and is in a state in which it cannot carry any traffic. The SGSN issues the alarm after sending the maximum amount of RESET messages, after which the RESET messages are no longer sent. This means that the system does not try to recover from the situation by itself anymore; the user has to resolve the situation.</t>
+  </si>
+  <si>
+    <t>application ip association missing
+If Application IP addresses are not found, process should not continue until it get those. Alarm is set by process indicating only own application IP. Alarm is cancelled when application IP address is found.
+Cause:
+If Application IP addresses are not found, process should not continue until it get those. Alarm is set by process indicating only own application IP. Alarm is cancelled when application IP address is found.</t>
+  </si>
+  <si>
+    <t>cha out of use
+This alarm is used by the Cloud SGSN charging data program blocks (for example, A4SPRB and S4SPRB) to indicate that charging functionality cannot run normally anymore. This may be due to manual S-CDR generation command, setting charging functionality to off by modifying charging parameters, or in case of a critical internal issue within SGSN charging program block (for example, memory allocation failure).
+Cause:
+This alarm is used by the Cloud SGSN charging data program blocks (for example, A4SPRB and S4SPRB) to indicate that charging functionality cannot run normally anymore. This may be due to manual S-CDR generation command, setting charging functionality to off by modifying charging parameters, or in case of a critical internal issue within SGSN charging program block (for example, memory allocation failure).</t>
+  </si>
+  <si>
+    <t>cha overwrt of untransfiles
+This alarm is used by the Cloud SGSN Charging Gateway Function CGF to indicate that CGF has no free files or transfered files to write, so it will overwrite un-transferred files. This is the consequence of warning 263 CHA_INCR_NUM_OF_UNTRANSFILES_A if no actions are taken. Customer should check CMD connection.
+Cause:
+This alarm is used by the Cloud SGSN Charging Gateway Function CGF to indicate that CGF has no free files or transfered files to write, so it will overwrite un-transferred files. This is the consequence of warning 263 CHA_INCR_NUM_OF_UNTRANSFILES_A if no actions are taken. Customer should check CMD connection.</t>
+  </si>
+  <si>
+    <t>paps application cpu overload
+Alarm is set by sOLC process indicating that one or more PAPS processes has exhibited an overload in CPU resources by exceeding a certain limit. PAPS will start dropping or shedding procedures in order to reduce the overload. Alarm is cancelled once the CPU consumption of the process falls below that limit.
+Cause:
+Alarm is set by sOLC process indicating that one or more PAPS processes has exhibited an overload in CPU resources by exceeding a certain limit. PAPS will start dropping or shedding procedures in order to reduce the overload. Alarm is cancelled once the CPU consumption of the process falls below that limit.</t>
+  </si>
+  <si>
+    <t>paps application cpu critical overload
+Alarm is set by sOLC process indicating that one or more PAPS processes have exhibited an overload in CPU resources by exceeding a certain CRITICAL limit. PAPS will start full shedding procedures in order to reduce the overload. Alarm is cancelled once the CPU consumption of the process falls below that limit.
+Cause:
+Alarm is set by sOLC process indicating that one or more PAPS processes have exhibited an overload in CPU resources by exceeding a certain CRITICAL limit. PAPS will start full shedding procedures in order to reduce the overload. Alarm is cancelled once the CPU consumption of the process falls below that limit.</t>
+  </si>
+  <si>
+    <t>paps port mirror critical overload
+Alarm is set by sOLC process indicating that there is a minor overload in port mirroring.
+Cause:
+Alarm is set by sOLC process indicating that there is a minor overload in port mirroring.</t>
+  </si>
+  <si>
+    <t>paps attached subscribers maximum threshold reached
+Alarm is set by GMG process indicating that attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the attached subscriber number falls below that limit.
+Cause:
+Alarm is set by GMG process indicating that attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the attached subscriber number falls below that limit.</t>
+  </si>
+  <si>
+    <t>paps 2g attached subscribers maximum threshold reached
+Alarm is set by GMG process indicating that 2G attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the 2G attached subscriber number falls below that limit.
+Cause:
+Alarm is set by GMG process indicating that 2G attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the 2G attached subscriber number falls below that limit.</t>
+  </si>
+  <si>
+    <t>paps 3g attached subscribers maximum threshold reached
+Alarm is set by GMG process indicating that 3G attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the 3G attached subscriber number falls below that limit.
+Cause:
+Alarm is set by GMG process indicating that 3G attached subscribers number has exceeded the maximum limit. Alarm is cancelled once the 3G attached subscriber number falls below that limit.</t>
+  </si>
+  <si>
+    <t>paps application prb message queue critical overload
+Alarm is set by sOLC process of PAPS when the incoming message (ring or DMX) queue of one or more PAPS processes have exceeded a predefined CRITICAL limit. At this limit, PAPS will continue and increase 3GPP transaction shedding in order to actively reduce the overload level. Alarm is cancelled once the message queue fullness level of ALL the affected processes fall below this limit.
+Cause:
+Alarm is set by sOLC process of PAPS when the incoming message (ring or DMX) queue of one or more PAPS processes have exceeded a predefined CRITICAL limit. At this limit, PAPS will continue and increase 3GPP transaction shedding in order to actively reduce the overload level. Alarm is cancelled once the message queue fullness level of ALL the affected processes fall below this limit.</t>
+  </si>
+  <si>
+    <t>paps application message storm detected
+Alarm is set by sOLC process of PAPS when the incoming transaction rate of certain SGSN procedures is above the preconfigured message storm limit. This depends on the procedure itself. When such storm is detected, PAPS will *drop* ALL those procedures exceeding the limit within the specific measurement period. Alarm is cancelled when the incoming transaction rate falls below the storm limit.
+Cause:
+Alarm is set by sOLC process of PAPS when the incoming transaction rate of certain SGSN procedures is above the preconfigured message storm limit. This depends on the procedure itself. When such storm is detected, PAPS will *drop* ALL those procedures exceeding the limit within the specific measurement period. Alarm is cancelled when the incoming transaction rate falls below the storm limit.</t>
+  </si>
+  <si>
+    <t>This alarm can be fired due to two different problems. The first field of "Alarm Message" column in alarm will show the problem type.
+Cause:
+noSystemResourceAvailable
+The memory threshold has been exceeded.
+utilizationReachedThreshold
+The pre-allocated memory to buffer ACR messages is full.</t>
+  </si>
+  <si>
+    <t>REM detected a problem with its connectivity to a service member under its control, or a service member has missed a heartbeat to REM.
+Cause:
+The possible causes of this alarm are:
+The service member has undergone an initialization or reconfiguration due to an automatic action.
+The communication path from REM to the service member has been lost or interrupted.
+REM has detected a loss of a heartbeat from the service member.</t>
+  </si>
+  <si>
+    <t>This alarm is used by UMTS and IMS applications. Alarm information is given under application specific sub-section below.
+UMTS application
+This alarm will be displayed if CDR logger process loses connection to mate CDR logger process in a duplex CDR Host configuration, or if CDR logger process loses connection to local CDR receiver process.
+IMS application
+This alarm will be displayed if diameter connection to CCF is failed and some criteria is met, or if iCCF receiver process loses connection to mate iCCF receiver process in a duplex CDR services configuration, or if iCCF logger process loses connection to mate iCCF logger process, or if iCCF logger process loses connection to local iCCF receiver process.
+Cause:
+UMTS application
+Connection between active and standby CDR logger is broken or connection between CDR logger and receiver is broken.
+IMS application
+The cause can be:
+The configuration is wrong at LSM side or CCF side.
+The network is unstable between LSM and CCF.
+There are two connections established while more than two IPs are returned from DNS query, minor alarm will be fired.
+There is one connection established while more than one IP are returned from DNS query, major alarm will be fired.
+There is no connection established while at least one IP is returned from DNS query, critical alarm will be fired.
+Connection between active and standby iCCF receiver is broken, or connection between active and standby iCCF logger is broken, or connection between iCCF logger and receiver is broken.</t>
+  </si>
+  <si>
+    <t>One or more critical CP Tasks have been un-responsive to regular Integrity Monitor - IMON Heartbeats. IMON attempted to restart them and multiple restarts have escalated to a Process Init on the Standby Card or a Switch Over to the Standby Card from the Active Card where the target stuck task was running.
+Cause:
+Task may be executing code that is possibly in an infinite loop or too CPU intensive.</t>
+  </si>
+  <si>
+    <t>The redundant Ethernet link has gone down on one of the diskless hosts. A link switchover may have occurred to move communication for that host to the remaining link, which is now simplex.
+Cause:
+List of root causes:
+The Service itself has failed.
+The link/port itself has failed.</t>
+  </si>
+  <si>
+    <t>Indicates that individual, some or all of the Diameter (Agent) connections are down for Geographic Redundancy or Multiple Destinations strategy.
+Cause:
+If one connection is down, minor individual alarm for this connection will be generated.
+If the connection is re-established successfully or deleted, individual alarm for this connection will be cleared.
+If all connections of all FQDNs are unavailable, critical overall link down alarm will be generated.
+For Geographic Redundancy strategy, if there are not enough active connections available from both primary and alternate destinations, major overall link down alarm will be generated. For Multiple Destinations strategy, if all connections to the individual specific FQDN are unavailable (but other FQDNs have connections), major overall link down alarm will be generated.
+For Geographic Redundancy strategy, if there are enough connections available but there is one or more alternate connection used, minor overall link down alarm will be generated. For Multiple Destinations strategy, if there are not enough active connections available associated with the individual specific FQDN, minor overall link down alarm will be generated for this specific FQDN.
+For Geographic Redundancy strategy, if there are enough primary connections available to reach the minimum number of active connections, then the overall link alarm shall be cleared. For Multiple Destinations strategy, if there are enough connections of this specific FQDN available to reach the minimum number of active connections, then the overall link alarm for the specific FQDN shall be cleared.</t>
+  </si>
+  <si>
+    <t>This alarm indicates the fully-qualified domain name (FQDN) DNS query error, as well as the Agent FQDN DNS query error.
+Cause:
+If DNS query for one FQDN failed and there is no connection available for other FQDN(s), critical alarm will be generated.
+If DNS query for one FQDN failed and there is connection available for other FQDN(s), major alarm will be generated.
+If DNS query for one FQDN successfully and there is an existing DNS query alarm for the FQDN, the alarm will be cleared.
+For FQDNs associated with LDAP Server URIs, a critical alarm will be generated if a DNS query fails for any FQDN.</t>
+  </si>
+  <si>
+    <t>This alarm indicates that the CPU utilization on a service has exceeded the threshold. The overload could be caused by one or more of the following reasons: base overload, per-service quota restriction overload or thread level CPU overload. The "Additional Info" field of the alarm report will list the contributing causes. When thread level CPU overload level changes, a corresponding profile report is also generated.
+Cause:
+Call traffic is too high with the current hardware/software configuration
+Some task/process uses CPU resource improperly, for example tight loop.</t>
+  </si>
+  <si>
+    <t>This alarm indicates the memory utilization on a diskless service has exceeded a threshold or a memory allocation failure has occurred.
+The current default thresholds are: Minor - 80, Major - 85, Critical - 90.
+Note: for MM-SI AMMS service, the default thresholds are: Minor - 94, Major - 96, Critical - 98.
+Cause:
+The cause can be:
+Call traffic is too high with the current hardware/software configuration.
+Some task manages memory resource improperly, e.g. memory leak.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiAlrmCritical indicates the value of the VS.alrmCritical measurement monitored by the Critical Alarms Count CPI exceeded a threshold in the last 15 minute interval.
+This Performance Measurement (PM) counts the number of critical alarms issued by the reporting resource.
+Notes:
+The thresholds are configurable via CLI.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+This is a summary alarm to bring more attention to the other critical alarms being raised</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiAlrmMajor indicates the value of the VS.alrmMajor measurement monitored by the Major Alarms Count CPI exceeded a threshold in the last 15 minute interval.
+This Performance Measurement (PM) counts the number of major alarms issued by the reporting resource.
+Notes:
+The thresholds are configurable via CLI.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+This is a summary alarm to bring more attention to the other major alarms being raised</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiAlrmMinor indicates the value of the VS.alrmMinor measurement monitored by the Minor Alarms Count CPI exceeded a threshold in the last 15 minute interval.
+This Performance Measurement (PM) counts the number of minor alarms issued by the reporting resource.
+Notes:
+The thresholds are configurable via CLI.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+This is a summary alarm to bring more attention to the other minor alarms being raised</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_numberOfTuplesInUse indicates that the number of tuples currently in use in a DA (data access) table used to store dynamic database information, has reached a threshold. The DA table in question is specified in the "Resource". The threshold is indicated in the "Additional Information".
+Notes:
+A DA table can have the following thresholds:
+Minor Alarm Onset
+Minor Alarm Abatement
+Major Alarm Onset
+Major Alarm Abatement
+Critical Alarm Onset
+Critical Alarm Abatement
+The alarm will be raised (or will transition to a higher severity if already raised) if the number of tuples in use is greater than or equal to the onset threshold for that severity (specific to that table).
+The alarm will transition to a lower severity (or will be cleared if the current severity is minor) if the number of tuples in use is less than or equal to the abatement threshold for that severity (specific to that table).
+Cause:
+Some of the possible causes are:
+The office is experiencing greater traffic than it is engineered for.
+A software error is preventing the tuples in the table from being idled when they are no longer in use.</t>
+  </si>
+  <si>
+    <t>The processNotStarted alarm is caused if an application process cannot be started, or one of the following daemons has a problem starting:
+ipm
+unbound
+sshd (on all service hosts with fixed IP address)
+ntpd (on all service hosts on non-CPSB platforms)
+Cause:
+ipm - when the ipm process fails to start after trying to reboot and 3 attempts, the ipmStartupFailure alarm will be generated.
+unbound - when the unbound process fails to start after 3 attempts, the unboundStartupFailure alarm will be generated.
+sshd - when the sshd process fails to start after 3 attempts, the sshdStartupFailure alarm will be generated.
+ntpd - when the ntpd process fails to start after 3 attempts, the ntpdStartupFailure alarm will be generated.
+Application Process - when the application process fails to start after 3 attempts, the applStartupFailure alarm will be generated.</t>
+  </si>
+  <si>
+    <t>The system detected a problem or a state change to external connectivity.
+Cause:
+A failure or route change has occurred that adversely affects the external IP connectivity.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiAttachFailures, indicates the value of the VS.cpiAttachFailures measurement, monitored when failure Attach request CPI exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the UE Attach procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Internal error
+Procedure collision with ongoing HSS or SGW procedure
+Invalid data in Attach Request message (includes protocol failures or invalid message content)
+UE Authentication Failure due to invalid validation of RES returned in Authentication Response message or Authentication Failure received by UE
+HSS failure in response to AIR
+HSS failure in response to ULR
+NAS message timeout (message include Authentication Response, Security Mode Complete, Attach Complete)
+ENB returns Initial Context Setup Failure
+Timeout occurs while waiting for Initial Context Setup Response
+Double S1 connection
+Unexpected S1 release
+Bad NAS ESM Information Response
+Bad NAS message in ESM container (PDN Connectivity Request, Activate Default Bearer Response)
+SGW failure in response to Create Session Request
+UE returns Activate Default Bearer Reject
+SGW failure in response to Modify Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiUpdateBearerFailures, indicates the value of cpiUpdateBearerFailures measurement, monitored when failure on Update Bearer request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Update Bearer procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+SGW failure on Modify Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiServiceRequestFailures, indicates the value of cpiServiceRequestFailures measurement, monitored when failure on Service request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the UE Service Request procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Procedure collision with ongoing HSS or SGW procedure
+Invalid data in Service Request message (includes protocol failures or invalid message content)
+UE Authentication Failure due to invalid validation of RES returned in Authentication Response message or Authentication Failure received by UE
+HSS failure in response to AIR
+NAS message timeout (message include Authentication Response or Security Mode Complete)
+ENB returns Initial Context Setup Failure
+Timeout occurs while waiting for Initial Context Setup Response
+Double S1 connection
+Unexpected S1 release
+SGW failure on Modify Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiCreateDedicatedBearerFailures, indicates the value of VS.cpiCreateDedicatedBearerFailures measurement, monitored when failure on Create Dedicated Bearer request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Create Dedicated Bearer procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Collision with another EMM or BSM procedure
+No resource available (currently MME only supports one dedicated bearer)
+Bad S11 message (Create Bearer Request)
+UE returns failure on Activate Dedicated Bearer Request
+ENB returns failure on E-RAB Setup Request
+Timeout waiting for UE or ENB's response</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiUpdateDedicatedBearerFailures, indicates the value of VS.cpiUpdateDedicatedBearerFailures measurement, monitored when failure on Update Dedicated Bearer request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Update Dedicated Bearer procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Invalid data in Update Dedicated Bearer Request message (includes protocol failures or invalid message content)
+The response to the SGW could not be encoded
+SGW failure on Update Dedicated Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiDeactivateDedBearerFailures, indicates the value of VS.cpiDeactivateDedBearerFailures measurement, monitored when failure on Deactivate Dedicated Bearer request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Deactivate Dedicated Bearer procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Invalid data in Delete Bearer Request message (includes protocol failures or invalid message content)
+The response to the SGW could not be encoded
+SGW failure on Delete Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOwNoRelocFailures, indicates the value of VS.cpiHOwNoRelocFailures measurement, monitored when failure on Handover Path Switch request, to same Serving Gateway, exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Handover procedure without MME relocation and without SGW relocation, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+SGW failed to switch the S1-U downlink path to the new ENB</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOwSGWrelocFailures, indicates the value of VS.cpiHOwSGWrelocFailures measurement, monitored when failure on Handover Path Switch request, to a different Serving Gateway, exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the Handover procedure without MME relocation and with SGW relocation, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+See the list of failure counters for the Handover procedure without MME relocation and with SGW relocation. There are several failure causes, each with a separate failure counter. The calculation for this alarm implicitly uses the sum of all the failure counters for the Attach procedure.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOwMMErelocFailures_atSource, indicates the value of VS.cpiHOwMMErelocFailures_atSource measurement, monitored when failure on Handover request, with MME relocation, exceeded a threshold in the last 15 minute interval. This value computes the failure rate at the source MME for the Handover procedure with MME relocation, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+See the list of failure counters for the Handover procedure with MME relocation (at the Source MME). There are several failure causes, each with a separate failure counter. The calculation for this alarm implicitly uses the sum of all the failure counters for the Attach procedure.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOwMMErelocFailures_atTarget, indicates the value of VS.cpiHOwMMErelocFailures_atTarget measurement, monitored when failure on Handover request, with MME forward relocation, exceeded a threshold in the last 15 minute interval. This value computes the failure rate at the Target MME for the Handover procedure with MME relocation, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+See the list of failure counters for the Handover procedure with MME relocation (at the Target MME). There are several failure causes, each with a separate failure counter. The calculation for this alarm implicitly uses the sum of all the failure counters for the Attach procedure.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiTauFailures, indicates the value of VS.cpiTauFailures measurement, monitored when failure on Tracking Area Update request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the TAU procedure, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Procedure collision with ongoing HSS or SGW procedure
+Invalid data in Tracking Area Update Request message (includes protocol failures or invalid message content)
+ENB returns Initial Context Setup Failure
+Timeout occurs while waiting for Initial Context Setup Response
+Double S1 connection
+Unexpected S1 release
+SGW failure on Modify Bearer Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiGTPcResponseTO_S11, indicates the value of VS.cpiGTPcResponseTO_S11 measurement, monitored when missing replies to S11(gtpc) request exceeded a threshold in the last 15 minute interval. This value computes the cpiage of Response messages that are not received over S11, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Timeout waiting for SGW response on MME's Request</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiGTPcResponseTO_S10, indicates the value of VS.cpiGTPcResponseTO_S10 measurement, monitored when missing replies to S10(gtpc) request exceeded a threshold in the last 15 minute interval. This value computes the cpiage of Response messages that are not received over S10, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+The cause is Unknown from the measurements involved in this calculation.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiS1MMEconnFailures, indicates the value of VS.cpiS1MMEconnFailures measurement, monitored when failed S1MME Connect request exceeded a threshold in the last 15 minute interval. This value computes the failure rate for the eNB connection over S1-MME, and compares the calculation against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+PLMN and tracking area data was not provisioned correctly</t>
+  </si>
+  <si>
+    <t>This alarm indicates the message shedding severity under system overload. The two severity levels indicate the degree of shedding severity.
+The types of messages/calls that are shed is specific to the application and there tends to be additional types of messages impacted by the shedding as the severity increases. Currently the default thresholds between Major and Critical is 70.
+Cause:
+Call traffic is too high with the current hardware/software configuration
+Some task/process uses CPU/Memory resource improperly, for example tight loop.</t>
+  </si>
+  <si>
+    <t>This alarm indicates that the utilization of a pre-allocated resource by software has exceeded thresholds. The resource could be internal buffer, data structure array, table entries, etc.
+Cause:
+Call traffic is too high with the current hardware/software configuration.</t>
+  </si>
+  <si>
+    <t>Communication between active IPDS member and the active member of a Service Pool failed or internal communications within active IPDS member failed. The alarmed Service Pool type could be CPPS or DBS, as indicated in the resource string. 
+Cause: 
+The possible causes of this alarm are: 
+IPDS or a service pool has duplex failed or is undergoing initialization. 
+Software failure prevents communication establishment between IPDS and the service pool.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiGTPcResponseTO_Sv indicates meeting a threshold of the GTPc Response Time out over Sv CPI (requests sent over an Sv interface for which no response is received), which is calculated every 5 minutes using this formula:
+VS.NbrTO_SvGtpc / VS.TotalReqSent_SvGtpc
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure to receive GTP responses from an MSC could be due to any of the following reasons:
+Errors or problems at the far end MSC
+Network problems between the MME and the MSC
+Internal errors at the MME</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiGTPcResponseTO_Gn, indicates that the value of VS.cpiGTPcResponseTOGn has exceeded a threshold in the last 15 minute interval. This counter monitors the percentage of GTP Requests sent over a Gn interface for which no Response is received by the CMM. The Gn interface connects the CMM with one or more SGSNs. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure to receive GTP responses from an SGSN could be due to any of the following reasons:
+Errors or problems at the far end SGSN
+Network problems between the CMM and the SGSN
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiNoPSHOFailuresOverSv indicates meeting a threshold of the Hand Down to UTRAN/GERAN via the Sv interface without PSHO Failure Rate CPI, which is calculated every 5 minutes using this formula:
+1 - ( ( VS.NbrSuccessCSHOSv + VS.NbrCSHOSvAbort_Other + VS.NbrCSHOSvAbort_Canceled ) / VS.AttCSHOSv )
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+attempted handovers of circuit-services only to UTRAN/GERAN via the Sv interface may fail for any of the following reasons:
+Sv interface problems - MME cannot communicate with the MSC
+Handover preparation is rejected by the target UTRAN/GERAN network
+UE fails to complete handover to the target radio access network due to RF conditions
+Subscriber provisioning prohibits handover to UTRAN/GERAN
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOFailuresTo3G2GOverGn, indicates that the value of VS.cpiHOFailuresto3G2GOverGn has exceeded a threshold in the last 15 minute interval. This counter monitors the failure rate of attempted handovers from E-UTRAN to a UTRAN/GERAN SGSN using the Gn interface. This includes Routing Area Update procedures. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from E-UTRAN to a UTRAN/GERAN SGSN via the Gn interface may fail for any of the following reasons:
+Protocol Errors on the Gn interface with the SGSN
+Gn link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiAttachFailuresSysRelated, indicates meeting/exceeding a threshold of the rate of system-related failures for Attach procedures, which is calculated every 5 minutes, using the formula:
+VS.NbrAttachFailureSysRelated_sum / VS.AttAttachRequests
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Failures at the eNB elements
+Failures at the SGW elements
+Failures at the MME elements</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiServiceReqFailuresSysRelated, indicates meeting/exceeding a threshold of the rate of system-related failures for UE Service Request procedures, which is calculated every 5 minutes, using the formula:
+VS.NbrServiceReqFailureSysRelated_sum / VS.AttServiceRequests
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Failures at the eNB elements
+Failures at the SGW elements
+Failures at the MME elements</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiTauFailuresInterSgw, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures involving SGW relocation, which is calculated every 5 minutes, using the formula:
+(VS.TauInterSgwSucc - VS.TauInterSgwAtt) / VS.TauInterSgwAtt
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+RF problems may prevent the UE from sending or receiving messages
+Possible problems with the eNB or the SGW
+SGW is not available to provide service to the UE in the new Tracking Area
+Because of SGW failure (no response from SGW or SGW reject the Create Session/Modify Bearer Requests)
+Internal failure</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiTauFailuresInterMme, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures involving MME relocation which is calculated every 5 minutes, using the formula:
+(VS.TauInterMmeAtt - VS.TauInterMmeSucc) / VS.TauInterMmeAtt
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Possible problems with the eNB or the MME
+Old MME does not respond
+MME is not available to provide service to the UE in the new Tracking Area</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiFailuresOverSGs, indicates meeting/exceeding a threshold of the rate of failure for handling messages from the SGs interface, which is calculated every 5 minutes, using the formula:
+VS.NbrFailedSGsSignalingProcedures / VS.AttSGsSignalingProcedures
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Possible problems with the SGs links
+Internal Failure</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiEIRfailuresS13, indicates that the value of VS.LSS_cpiMafEIRfailuresS13 has exceeded a threshold in the last 5 minute interval. This counter monitors the percentage of unsuccessful EquipmentCheckRequest (ECR) to the number of ECRs attempted. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure of ECR responses from the S13 EIR interface could be due any of the following reasons:
+Network problems between MME and HSS (EIR).
+Errors or problems at far end HSS (EIR).
+Internal errors at the MME.
+Parsing/decoding errors in the ECR response.
+IMEI not found in EIR DB</t>
+  </si>
+  <si>
+    <t>This alarm is raised whenever a MME (mobility management entity) disconnects with REM.
+Cause:
+Possible causes include:
+The MME has a fault.
+The MME tear down the connection with REM.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiTauFailuresInterMmeInterSgw, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures involving MME relocation and SGW relocation which is calculated every 5 minutes, using the formula:
+(VS.TauInterMmeInterSgwAtt - VS.TauInterMmeInterSgwSucc) / VS.TauInterMmeInterSgwAtt
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some of the reasons for failure:
+Possible problems with the HSS, eNB, MME, or SGW
+MME is not available to provide service to the UE in the new Tracking Area
+RF problems may prevent the UE from sending or receiving messages
+SGW is not available to provide service to the UE in the new Tracking Area
+Because of SGW failure (no response from SGW or SGW reject the Create Session/Modify Bearer Requests)
+HSS failure/error response during Update Location Request
+UE not allowed service due to UE subscription information</t>
+  </si>
+  <si>
+    <t>This alarm is raised whenever a SGS MME Controller goes out of service.
+Cause:
+Possible causes include:
+The MME was taken out of service manually.
+The MME has a fault.
+There is a IP Transport issue between the MME and MSC.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailurestoUTRANoverS3, indicates that the value of VS.cpiHOfailuresToUTRANoverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted handovers from E-UTRAN to a UTRAN SGSN using the S3 interface. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from E-UTRAN to a UTRAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresToGERANoverS3, indicates that the value of VS.cpiHOfailuresToGERANoverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted handovers from E-UTRAN to a GERAN SGSN using the S3 interface. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from E-UTRAN to a GERAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresFromUTRANoverS3, indicates that the value of VS.cpiHOfailuresFromUTRANoverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted handovers from UTRAN to a E-UTRAN SGSN using the S3 interface. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from UTRAN to E-UTRAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresFromGERANoverS3, indicates that the value of VS.cpiHOfailuresFromGERANoverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted handovers from GERAN to a E-UTRAN SGSN using the S3 interface. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from GERAN to E-UTRAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresRAUto2G3GsameSgwOverS3, indicates that the value of VS.cpiHOfailuresRAUto2G3GsameSgwOverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted handovers from E-UTRAN to a UTRAN/GERAN SGSN using the S3 interface without SGW Relocation. This is Routing Area Update procedures. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted RAU-based handovers from E-UTRAN to a UTRAN/GERAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresRAUto2G3GnewSgwOverS3, indicates that the value of VS.cpiHOfailuresRAUto2G3GnewSgwOverS3 has exceeded a threshold in the last 5 minute interval. This counter monitors the failure rate of attempted RAU-based handovers from E-UTRAN to a UTRAN/GERAN SGSN using the S3 interface with SGW Relocation. This is Routing Area Update procedures. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted RAU-based handovers from E-UTRAN to a UTRAN/GERAN SGSN via the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiGTPcResponseTO_S3, indicates meeting a threshold of GTP response failure rate in the last 5 minute interval. This failure rate monitors the percentage of GTP Requests sent over an S3 interface for which no Response is received by the MME. The S3 interface connects the MME with one or more SGSNs. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure to receive GTP responses from an SGSN could be due to any of the following reasons:
+Errors or problems at the far end SGSN
+Network problems between the MME and the SGSN
+Internal errors at the MME</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiMMEUEcapacity, indicates meeting a threshold of a UE capacity utilization rate on a per board basis in the last 5 minutes. The utilization rate is calculated in every interval of 5 minutes by using this formula:
+(Number of maximum registered on a board / UE capacity of a single board) * 100%
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the subsequent intervals.
+Cause:
+The alarm is fired when the number of the maximum registered UEs crosses the predefined threshold on a single board.</t>
+  </si>
+  <si>
+    <t>This alarm indicates the virtual memory size of an application process has exceeded a threshold.
+Cause:
+The likely cause of this alarm can be that some task manages memory resource improperly, e.g. memory leak.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMobileTermLocRequestFailures indicates meeting a threshold of the Mobile Termination Location Request Failure CPI, which is calculated every 5 minutes using this formula:
+1 - ( ( VS.NbrSuccessMobileTermLocRequests + VS.AbortMobileTermLocRequest_HO + VS.AbortMobileTermLocRequest_MMEreloc + VS.AbortMobileTermLocRequest_Other + VS.AbortMobileTermLocRequest_UEdetach ) / VS.AttMobileTermLocRequests )
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some possible reasons for failure:
+Problems with the eNB or SMLC involved in request
+Incorrect provisioning of SMLC to TA
+SMLC is not available to provide service</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiNetwrkInducedLocRequestFailures indicates meeting a threshold of the Network Induced Location Request Failure CPI, which is calculated every 5 minutes using this formula:
+1 - ( ( VS.NbrSuccessNetwrkInducedLocRequests + VS.AbortNetwrkInducedLocRequest_HO + VS.AbortNetwrkInducedLocRequest_MMEreloc + VS.AbortNetwrkInducedLocRequest_Other + VS.AbortNetwrkInducedLocRequest_UEdetach ) / VS.AttNetwrkInducedLocRequests )
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Some possible reasons for failure:
+Problems with the eNB or SMLC involved in request
+Incorrect provisioning of SMLC to TA
+SMLC is not available to provide service</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiWarnMsgDeliverySBcFailureRate indicates meeting a threshold of the Warning Message Delivery SBc Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessWarnMsgDeliverySBc / VS.AttWarnMsgDeliverySBc))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the CBC or the MME.
+Link failure to the CBC.
+Link failure to target eNBs.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiWarnMsgDeliveryS1MMEFailureRate indicates meeting a threshold of the Warning Message Delivery S1MME Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessWarnMsgDeliveryS1MME / VS.AttWarnMsgDeliveryS1MME))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the MME.
+Link failure to target eNBs.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiStopWarnMsgDeliverySBcFailureRate indicates meeting a threshold of the Stop Warning Message Delivery SBc Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessStopWarnMsgDeliverySBc / VS.AttStopWarnMsgDeliverySBc))
+Notes:
+The thresholds are configurable within this context
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the CBC or the MME.
+Link failure to the CBC.
+Link failure to target eNBs.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiStopWarnMsgDeliveryS1MMEFailureRate indicates meeting a threshold of the Stop Warning Message Delivery S1MME Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessStopWarnMsgDeliveryS1MME / VS.AttStopWarnMsgDeliveryS1MME))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the MME.
+Link failure to target eNBs.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionStartSmFailureRate indicates meeting a threshold of the MBMS Session Start Sm Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessMBMSsessionStartSm / VS.AttMBMSsessionStartSm))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Start procedures between MBMS-GW and the MME using the Sm interface may fail for any of the following reasons:
+Protocol Errors on the Sm interface with the MBMS-GW
+Sm link inhibited due to link lock or link disabled due to dependency on the parent managed object
+MBMS functionality disabled for the PLMN specified in the TMGI
+Internal MME resource overload or exhaustion
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionStartM3FailureRate indicates meeting a threshold of the MBMS Session Start M3 Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * ((VS.NbrSuccessMBMSsessionStartM3 + VS.AbortMBMSsessionStopM3) / VS.AttMBMSsessionStartM3))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Start procedures between the MME and MCEs using the M3 interface may fail for any of the following reasons:
+Protocol Errors on an M3 interface with an MCE
+MCE failure response
+MME timeout awaiting MCE response
+Internal MME resource overload or exhaustion
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionStopSmFailureRate indicates meeting a threshold of the MBMS Session Stop Sm Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessMBMSsessionStopSm / VS.AttMBMSsessionStopSm))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Stop procedures between MBMS-GW and the MME using the Sm interface may fail for any of the following reasons:
+Protocol Errors on the Sm interface with the MBMS-GW
+Sm link inhibited due to link lock or link disabled due to dependency on the parent managed object
+MBMS bearer context not found
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionStopM3FailureRate indicates meeting a threshold of the MBMS Session Stop M3 Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * ((VS.NbrSuccessMBMSsessionStopM3 + VS.AbortMBMSsessionStopM3) / VS.AttMBMSsessionStopM3))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Stop procedures between the MME and MCEs using the M3 interface may fail for any of the following reasons:
+Protocol Errors on an M3 interface with an MCE
+Internal MME resource overload or exhaustion
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionUpdateSmFailureRate indicates meeting a threshold of the MBMS Session Update Sm Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessMBMSsessionUpdateSm / VS.AttMBMSsessionUpdateSm))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Update procedures between MBMS-GW and the MME using the Sm interface may fail for any of the following reasons:
+Protocol Errors on the Sm interface with the MBMS-GW
+Sm link inhibited due to link lock or link disabled due to dependency on the parent managed object
+MBMS bearer context not found
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiMBMSSessionUpdateM3FailureRate indicates meeting a threshold of the MBMS Session Update M3 Failure Rate CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * ((VS.NbrSuccessMBMSsessionUpdateM3 + VS.AbortMBMSsessionStopM3) / VS.AttMBMSsessionUpdateM3))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted MBMS Session Update procedures between the MME and MCEs using the M3 interface may fail for any of the following reasons:
+Protocol Errors on an M3 interface with an MCE
+MCE failure response
+MME timeout awaiting MCE response
+Internal MME resource overload or exhaustion
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOfailuresRAUto2G3GOverS3, indicates the failure rate of attempted Routing Area Update (RAU) procedures from E-UTRAN to a UTRAN/GERAN SGSN using the S3 interface has exceeded a threshold in the last 5 minute interval. Failures encountered during the entire duration of the RAU procedure are included. Therefore, failures encountered both prior to and after SGW change determination are included. The failure rate is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted Routing Area Update procedures from E-UTRAN to a UTRAN/GERAN SGSN using the S3 interface may fail for any of the following reasons:
+Protocol Errors on the S3 interface with the SGSN
+S3 link inhibited due to link lock or link disabled due to dependency on the parent managed object
+Internal MME resource overload
+The UE Context requested by SGSN is not available in the MME
+UE failed security validation at the MME
+Failure to complete Routing Area Update procedure at the SGSN
+Network connectivity problems between MME and SGSN
+MME failure to release resources at completion of Routing Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiS3TauFailures, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures from an SGSN to the MME over an S3 link. This alarm is calculated every 5 minutes using the formula:
+(VS.TauAttS3 - VS.TauSuccS3) / VS.TauAttS3
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the eNB or the MME.
+RF problems prevent UE from sending/receiving messages.
+SGW is not available to provide service to the UE in the new Tracking Area.
+SGSN does not respond.
+Link failures to the SGSN, SGW, eNB and/or HSS.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiS3TauFailuresIntraSGW, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures from an SGSN to the MME over an S3 link that do not involve a change of serving SGW. This alarm is calculated every 5 minutes using the formula:
+(VS.TauIntraSgwAttS3 - VS.TauIntraSgwSuccS3) / VS.TauIntraSgwAttS3
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the eNB or the MME.
+RF problems prevent UE from sending/receiving messages.
+SGW is not available to provide service to the UE in the new Tracking Area.
+SGSN does not respond.
+Link failures to the SGSN, SGW, eNB and/or HSS.
+Invalid DNS entries for the SGW (if SGW Discovery is active/enabled).
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiS3TauFailuresInterSgw, indicates meeting/exceeding a threshold of the rate of failure of Tracking Area Update procedures from an SGSN to the MME over an S3 link that involves a change of serving SGW. This alarm is calculated every 5 minutes using the formula:
+(VS.TauInterSgwAttS3 - VS.TauInterSgwSuccS3) / VS.TauInterSgwAttS3
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Possible failure reasons:
+Possible problems with the eNB or the MME.
+RF problems prevent UE from sending/receiving messages.
+SGW is not available to provide service to the UE in the new Tracking Area.
+SGSN does not respond.
+Link failures to the SGSN, SGW, eNB and/or HSS.
+Internal MME errors.</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiExtServiceRequestFailures indicates meeting a threshold of the Extended Service Request Failure CPI, which is calculated every 5 minutes using this formula:
+100 - (100 * (VS.NbrSuccessExtServiceRequests / VS.AttExtServiceRequests))
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Extended Service Request rejected by MME due to protocol errors
+For Mobile Terminated CSFB call, UE included rejection in CSFB Response IE of Extended Service Request
+Extended Service Request rejected by MME due to access restrictions (PLMN, TA, EPS service, non-EPS service not allowed)
+Extended Service Request rejected by MME due to roaming restrictions
+Extended Service Request rejected by MME due to TA not available
+For SGs based CSFB call, Extended Service Request rejected by MME due to TAI not mapped to LAI or mapped to LAI not supporting CSFB
+Extended Service Request rejected by MME due to UE implicitly detached
+Extended Service Request rejected by MME due to problems with SGs link to MSC
+Extended Service Request rejected by MME due to congestion
+Extended Service Request aborted on MME due to collision with other procedure pending for UE
+MME did not receive UE Context Release Request from ENB after successful processing of Extended Service Request
+CSFB call failed due to MME, ENB or SGW related System Failure. For more details, see the Extended Service Request System Failures description</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiExtServiceReqFailuresSysRelated indicates meeting a threshold of the Extended Service Request System Related Failure CPI, which is calculated every 5 minutes using this formula:
+100 * (VS.NbrFailedExtSvcRequestsSysRelated_sum / VS.AttExtServiceRequests)
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+ENB returns UE Context Modification Failure (includes lack of resources, collision with other procedure or protocol errors)
+ENB returns Initial Context Setup Failure (includes lack of resources, collision with other procedure or protocol errors)
+ENB returns failure with cause relating to invalid/mismatched eRAB Id or mmeS1AP Id sent by MME
+MME fails to process Extended Service Request due to a system related failure on MME
+SGW failure on Modify Bearer Request during CSFB call</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiPSHOFailuresOverSv indicates meeting a threshold of the Hand Down to UTRAN/GERAN via the Sv interface with PSHO Failure Rate CPI, which is calculated every 5 minutes using this formula:
+1 - ( ( VS.NbrSuccessPSHOSv + VS.NbrPSHOSvAbort_Other + VS.NbrPSHOSvAbort_Canceled ) / VS.AttPSHOSv )
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity will be raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted SRVCC handover of circuit and packet services to UTRAN/GERAN via the Sv interface may fail for any of the following reasons:
+Sv interface problems - MME cannot communicate with the MSC
+Handover preparation is rejected by the target UTRAN/GERAN network
+UE fails to complete handover to the target radio access network due to RF conditions
+Subscriber provisioning prohibits handover to UTRAN/GERAN
+Internal MME error</t>
+  </si>
+  <si>
+    <t>This alarm indicates that a failure response to a DNS query is received (either a failure response code was received from the DNS server, or no response was received from the DNS server) and no cache is available at the enhanced DNS client on the NGSS / SIP Device Server (DS) cards.
+Cause:
+When an A, AAAA or SRV DNS query response is received from a DNS server with a failure result code, or the DNS client times out waiting for a response from the DNS server, and the DNS client does not have a cache entry available to use this alarm is raised. This can be due to either no connection to the DNS server or a provisioning error at the DNS server.</t>
+  </si>
+  <si>
+    <t>This alarm indicates that there is software failure in s1mme or sbc modules, related to CMAS.
+Cause:
+Software failure in either the S1mme or sbc modules. Severity of the alarm is controlled by provisioning global parameters</t>
+  </si>
+  <si>
+    <t>This alarm indicates that there is a failure in sending a CMAS message over s1mme or sbc interfaces.
+Cause:
+Possible link failure on the S1mme or sbc interfaces. Severity of the alarm is controlled by provisioning global parameters</t>
+  </si>
+  <si>
+    <t>This alarm indicates that MME failed to receive an acknowledgement to a CMAS message.
+Cause:
+Possible link failure on the S1mme interface. Severity of the alarm is controlled by provisioning global parameters</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiAttachWithSGWreselection indicates meeting a threshold of the rate of SGW reselection during Attach procedures CPI, which is calculated every 5 minutes using this formula:
+VS.AttachWithSGWreselection/VS.AttAttachRequests
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Timeout or a Reject received from the SGW</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiAttachWithPGWreselection indicates meeting a threshold of the rate of PGW reselection during Attach procedures CPI, which is calculated every 5 minutes using this formula:
+VS.AttachWithPGWreselection/VS.AttAttachRequests
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Timeout or a Reject received from the SGW</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiPDNconnWithPGWreselection indicates meeting a threshold of the rate of PGW reselection during PDN connectivity procedures CPI, which is calculated every 5 minutes using this formula:
+VS.PdnConnPgwReselection/VS.AttPDNConnReq
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Timeout or a Reject received from the SGW</t>
+  </si>
+  <si>
+    <t>The raised alarm LSS_cpiHSSreselection indicates meeting a threshold of the rate of HSS reselection during Authentication or Update Location procedures CPI, which is calculated every 5 minutes using this formula:
+VS.HssReselectionAtt/(VS.AttAuthRequestsHSS+VS.AttUpdateLocationRequest)
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+The following responses from the HSS may trigger this alarm
+Timeout on a request to HSS
+HSS response code with error - TOO BUSY
+HSS response code with error - RESOURCES EXCEEDED
+HSS response code with error - UNABLE TO DELIVER
+HSS response code with error - OUT OF SPACE</t>
+  </si>
+  <si>
+    <t>An excessive number of links of a given type (e.g. s1mme, s11, etc.) are down. This is usually due to a network connectivity problem and not the individual links between the CMM and the external entity. Once this alarm is triggered the CMM will stop reporting alarms and status for links of the given type. Once the network problem is resolved and the number of links down is no longer excessive, this alarm will clear and the status of all links of the given type will be updated. This alarm is raised when at least 100 links of a given type are down. This alarm clears when 95 or fewer links are down.
+Cause:
+The possible causes of this alarm are:
+A large number network entities are out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on MME for network entities the MME communicates with.
+Software failure prevents communication established between MME and other network entities.</t>
+  </si>
+  <si>
+    <t>This alarm indicates that the process tmon lost heartbeat with the far end gateway IP.
+Cause:
+The physical connection between far end gateway and the blade where tmon is running has problems.
+Or configuration of tunnel is invalid.
+Alarm will be reported if the heartbeat fails.</t>
+  </si>
+  <si>
+    <t>Alarm "GPRS Attach Failure in GERAN" monitors the SGSN 2G Attach procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the Attach Procedure could be due to any of the following reasons:
+Network problems between the CMM and GERAN, EIR, and/or HSS.
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Alarm "GPRS Attach Failure in UTRAN" monitors the SGSN 3G Attach procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the Attach Procedure could be due to any of the following reasons:
+Network problems between the CMM and UTRAN, EIR, and/or HSS.
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Alarm "PS Paging Failure in GERAN" monitors the SGSN 2G Paging procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the Paging Procedure could be due to any of the following reasons:
+Network problems between the CMM and GERAN
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Alarm "PS Paging Failure in UTRAN" monitors the SGSN 3G Paging procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the Paging Procedure could be due to any of the following reasons:
+Network problems between the CMM and the UTRAN.
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiHOFailuresToLTEOverGn, indicates that the value of (100 - (100 * (VS.NbrHOtoLTESuccessGn / VS.AttNbrHOtoLTEGn)) has exceeded a threshold in the last 5 minute interval. This value monitors the percentage of failure rate of attempted handovers from GERAN/UTRAN to MME using the Gn interface. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Attempted handovers from GERAN/UTRAN to E-UTRAN MME via interface may fail for any of the following reasons:
+Protocol Errors on the Gn interface with the MME
+Gn link inhibited due to link lock or link disabled due to dependency on the parent managed object
+UE failed security validation at the MME
+Failure to complete Tracking Area Update procedure at the MME
+Network connectivity problems between MME and SGSN
+SGSN failure to release resources at completion of Tracking Area Update procedure
+Internal MME error</t>
+  </si>
+  <si>
+    <t>This alarm indicates an LDAP connection problem. The alarm severity will be critical if there is no connectivity to the LDAP server. Otherwise, the severity depends on whether the number of connections is deemed sufficient, based on data provisioned in the LDAP Server Interface Profile
+Cause:
+The alarm will be fired when there is a problem with connectivity to the LDAP server. This could be attributable to invalid configuration data in the LDAP Server Interface Profile, or to problems with the LDAP server, DNS server, or communication network.</t>
+  </si>
+  <si>
+    <t>The raised LSS_sgwResourceDegraded alarm indicates the CMM selection on SGW or SGW-PGW pair has been degraded.
+Cause:
+The possible causes of this alarm are:
+The Managed Object (MO) representing the SGW or SGW-PGW pair was suspended from the selection due to certain SGW or PGW Create Session Request failures exceeding a provisioned threshold within the provisioned timeout period. This is a major alarm.
+The last available Managed Object (MO) representing the SGW would have been suspended due to Create Session Request failures exceeding a provisioned threshold within the provisioned timeout period. This is a critical alarm.
+The last available Managed Object (MO) representing the SGW was suspended via the CLI. This is a critical alarm.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific entity involved.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>An excessive number of network elements of a given type (e.g. RNC) are having communication failure with the CMM. This is usually due to a network connectivity problem and not the individual external network element. Once this alarm is triggered the CMM will stop reporting alarms for the network element of the given type. Once the network problem is resolved and the alarm no longer excessive, this alarm will clear. This alarm is raised when at least 100 network elements of a given type having communication failure. This alarm clears when 95 or fewer are having communication failure.
+Cause:
+The possible causes of this alarm are:
+A large number network entities are out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>This alarm indicates that the IM infrastructure failed to connect to an IM peer.
+Cause:
+The IM peer internal floating IP is not available, or IM infrastructure hasn't detected the IP.</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiSgsnGtpcResponseTO_S3, indicates meeting a threshold of GTP response failure rate in the last 5 minute interval. This failure rate monitors the percentage of GTP Requests sent over an S3 interface for which no Response is received by the SGSN. The S3 interface connects the SGSN with one or more MMEs. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure to receive GTP responses from an MME could be due to any of the following reasons:
+Errors or problems at the far end MME
+Network problems between the SGSN and the MME
+Internal errors at the MME</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiSgsnGtpcResponseTO_S16, indicates meeting a threshold of GTP response failure rate in the last 5 minute interval. This failure rate monitors the percentage of GTP Requests sent over an S16 interface for which no Response is received by the SGSN. The S16 interface connects the SGSN with one or more other SGSNs. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure to receive GTP responses from an SGSN could be due to any of the following reasons:
+Errors or problems at the far end SGSN
+Network problems between the local SGSN and remote SGSN
+Internal errors at the SGSN</t>
+  </si>
+  <si>
+    <t>The raised alarm, LSS_cpiSgsnGtpcResponseTO_S4, indicates meeting a threshold of GTP response failure rate in the last 5 minute interval. This failure rate monitors the percentage of GTP Requests sent over an S4 interface for which no Response is received by the SGSN. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable within this context.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure could be due to any of the following reasons:
+Internal error
+Timeout waiting for SGW response on SGSN's Request</t>
+  </si>
+  <si>
+    <t>Alarm "RAU Failure Rate in GERAN" monitors the SGSN 2G RAU procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the 2G Rau Procedure could be due to any of the following reasons::
+Errors or problems at the far end CMM or SGSN.
+Network problems between the GERAN and the CMM.
+Internal errors at the CMM.</t>
+  </si>
+  <si>
+    <t>Alarm "RAU Failure Rate in UTRAN" monitors the SGSN 3G RAU procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the 3G Rau Procedure could be due to any of the following reasons:
+Errors or problems at the far end CMM or SGSN.
+Network problems between the UTRAN and the CMM.
+Internal errors at the CMM.</t>
+  </si>
+  <si>
+    <t>Alarm "MS Initiated PDP Context Activation Failure in GERAN" monitors the SGSN 2G PDP Context Activation procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the SGSN PDP Context Activation Procedure could be due to any of the following reasons:
+Errors or problems in the Gn-Gp SGSN network and/or S4-SGSN network.
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Alarm "MS Initiated PDP Context Activation Failure in UTRAN" monitors the SGSN 3G PDP Context Activation procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the SGSN PDP Context Activation Procedure could be due to any of the following reasons.
+Errors or problems in the Gn-Gp SGSN network and/or S4-SGSN network.
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Alarm "MS Initiated PDP Context Deactivation Failure in GERAN" monitors the SGSN 2G PDP Context Deactivation procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the SGSN PDP Context Deactivation Procedure could be due to any of the following reasons:
+Errors or problems in the Gn-Gp SGSN network and/or S4-SGSN network.
+Network problems between the GERAN and the CMM.
+Internal errors at the CMM.</t>
+  </si>
+  <si>
+    <t>Alarm "MS Initiated PDP Context Deactivation Failure in UTRAN" monitors the SGSN 3G PDP Context Deactivation procedure. When raised, it indicates that the percentage of failed procedures has crossed a threshold in the last 15 minute interval. The calculated percentage is compared against provisioned thresholds for Minor, Major, and Critical alarm conditions.
+Notes:
+The thresholds are configurable.
+An alarm with the same severity is raised only once for the same CPI and component.
+The alarm will be cleared if no threshold is met in one of the following intervals.
+Cause:
+Failure on the SGSN PDP Context Deactivation Procedure could be due to any of the following reasons:
+Errors or problems in the Gn-Gp SGSN network and/or S4-SGSN network.
+Network problems between the UTRAN and the CMM
+Internal errors at the CMM</t>
+  </si>
+  <si>
+    <t>Bonding interface is down.
+Cause:
+List of root causes:
+Both the physical NICs on the host, corresponding to the slave interfaces for the bonding inteface on Guest VM, is down.
+Slave interfaces for the bonding interface, on the guest side, is down.
+Bonding interface, on the guest side, is down.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S1mme link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S6ad link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S11 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S10 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Gn link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Sgs link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Sv link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific X2 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific X1_1 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S3 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S13 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific M3 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Sm link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Slg link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Sls link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Sbc link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S102 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific Rs10 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S4 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S16 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific SgsLite link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific S11u link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established. The additional text field indicates the specific T6a link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates with.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type S1mme has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type S6ad has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type Sgs has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type S13 has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type M3 has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type Slg has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type Sls has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type Sbc has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when SCTP path becomes unavailable. The local and remote provisioned addresses need to be checked for use of the correct 2 sub-networks provided. If the provisioned addresses match the 2 physical subnets, and if all address provisioned are also correct, then the physical network that carries the subnet used in the path "unavailable" alarm needs to be investigated for trouble. The alarm indicates the specific link type T6a has a path down. To retrieve which paths are down use the appropriate CLI command to retrieve path status. These alarms may need to be cleared manually: as alarms are reported when path connectivity is established, however their contents are a function of provisioned addresses (paths) that may be wrong and changed when the connection is down, and may no longer match with the path that was originally alarmed.
+Note: this alarm is cleared when the path's SCTP association changes operational state, either from "Enabled" to "Disabled" or from "Disabled" to "Enabled". This change could result from an administrative lock or unlock action, or a change in the collective availability of the association's paths. Any path unreachable alarms will be cleared. If the new association state is "Disabled", a single link/association alarm (LSS_externalLinkDown) will be raised.
+Cause:
+The provisioning of the SCTP endpoints on either (i.e. IP addresses) the CMM or the remote entity are incorrect, or the network between the endpoints is experiencing problems.</t>
+  </si>
+  <si>
+    <t>Communication between CMM and VSR cannot be established, in a multiple IPDS configuration.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to internal network issues.
+Software failure prevents communication established between CMM and other network entities.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when no NSSF available to send Availability service
+request
+Cause:
+No NSSF available to send Availablility request</t>
+  </si>
+  <si>
+    <t>This alarm is raised when no NSSF available to send NF selection request
+Cause:
+No NSSF available to send NF selection request</t>
+  </si>
+  <si>
+    <t>Communication between CMM and another network entity cannot be established.
+The additional text field indicates the specific NR10 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates
+with.
+Software failure prevents communication established between CMM and other
+network entities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication between CMM and another network entity cannot be established.
+The additional text field indicates the specific N26 link that is down.
+Cause:
+The possible causes of this alarm are:
+Remote network entity is out-of-service or undergoing initialization.
+Packet or HeartBeat message loss due to network issues.
+Provision data is incorrect on CMM for network entities the CMM communicates
+with.
+Software failure prevents communication established between CMM and other
+</t>
+  </si>
+  <si>
+    <t>This alarm is generated when all management services are down for all
+available NRF.
+Cause:
+Last available management service gets blacklisted</t>
+  </si>
+  <si>
+    <t>This alarm is raised when none of the discovery services are available.
+Alarm is triggered when last available discovery service gets blacklisted
+Cause:
+AMF received error cause during discovery procedure</t>
+  </si>
+  <si>
+    <t>Overload control framework has noticed that system resource conditions have been met to trigger this alarm. For example, CPU, disk, or memory usage has been above the threshold level for a long period.
+Detailed resource information can be found in supplementary info fields. This includes the amount of samples (cycles) and the value used for comparison (judgement).
+Cause:
+Monitored threshold exceeded continuously</t>
+  </si>
+  <si>
+    <t>During the VM deployment the CPU and Memory were not configured correctly.
+Cause:
+VM CPU and Memory values are below minimum thresholds.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when the SNMP Index Boot Status on an NE is not set to Persistent.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when a provisioned MTU size value is greater than the supported MTU size value.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when the license items in the network exceeds 100 percent of the license capacity.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when one or more files in the NFM-P software image specified for a device software upgrade is invalid, corrupt or absent. The NFM-P validates a device software file set before it imports the file set and distributes it to an NE. Ensure that the file set downloads properly to the NE and is not tampered with before you re-attempt the upgrade. The alarm clears when a valid file set is on the NE and the NFM-P activates the software image in the file set.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when a main server cannot communicate with an auxiliary server. The alarm clears when communication is restored.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when the CPM fails to save the SSH server host key on the persistent drive.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when a client delegate server is unreachable.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when the associated power supply is not operationally Up.</t>
+  </si>
+  <si>
+    <t>This alarm is raised when the reconfig action failed.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when all RADIUS servers have gone down.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when the NFM-P detects an NE moved to suspend state as per user request.</t>
+  </si>
+  <si>
+    <t>The alarm is generated when the aggregated virtual fabric link on the virtual chassis slot is down.</t>
+  </si>
+  <si>
+    <t>The alarm is raised when all TACACS servers have gone down.</t>
+  </si>
+  <si>
+    <t>Some sensor critical event asserted</t>
+  </si>
+  <si>
+    <t>Some equipment is in Critical state</t>
+  </si>
+  <si>
+    <t>Some sensor non recoverable event asserted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +2381,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,7 +2409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,19 +2432,293 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 6" xfId="1" xr:uid="{32BB021A-94E7-440C-9CF9-18B6EC12200A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -179,8 +2731,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2EA6C91-7CCC-4EDB-9EF8-6C2138E1C764}" name="Tabla1" displayName="Tabla1" ref="A1:F185" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F185" xr:uid="{A2EA6C91-7CCC-4EDB-9EF8-6C2138E1C764}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4B10B381-ABF9-49C5-B478-81798EEEDB33}" name="Nombre del elemento" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{147B9240-9B72-4C8B-9730-989F7C35E9CA}" name="Numero alarma" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7E04CBAE-3EAC-43B4-BB9E-88F0D75E9E74}" name="Descripción alarma" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{341A63AB-663F-4573-862D-191AEA68E30D}" name="Severidad" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{196F315C-5FC4-489E-876B-CD16CE18FE8E}" name="Significado" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{97D4E5A3-4E1C-48A3-84C5-57002C80506F}" name="Acciones" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,100 +3043,3720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579F67D-1D33-4947-9F67-E96F4E04E24B}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="219.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>11418</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>12273</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>11428</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12209</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12234</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>12241</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>12304</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>12276</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>12831</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>12828</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12312</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12201</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12216</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <v>12217</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <v>12296</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>12593</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
+        <v>12599</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12598</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8">
+        <v>12589</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12592</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>12707</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>12706</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11427</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>11331</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>11454</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8">
+        <v>11455</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8">
+        <v>11414</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>11410</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8">
+        <v>11419</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8">
+        <v>11406</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8">
+        <v>11428</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8">
+        <v>11336</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8">
+        <v>11337</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8">
+        <v>11338</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8">
+        <v>11438</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8">
+        <v>11443</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8">
+        <v>11416</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="8">
+        <v>11343</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="8">
+        <v>11402</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="8">
+        <v>11394</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="8">
+        <v>11347</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="8">
+        <v>11403</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="8">
+        <v>11348</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="8">
+        <v>11370</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="8">
+        <v>11371</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="8">
+        <v>11368</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="8">
+        <v>11369</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8">
+        <v>11397</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="8">
+        <v>11356</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="8">
+        <v>11355</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="8">
+        <v>11389</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="8">
+        <v>11450</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="8">
+        <v>11451</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="8">
+        <v>11422</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="8">
+        <v>11418</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>11428</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+      <c r="D56" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="8">
+        <v>11358</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="8">
+        <v>11354</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="8">
+        <v>11384</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="8">
+        <v>11359</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="8">
+        <v>11344</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="8">
+        <v>11393</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8">
+        <v>11400</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="8">
+        <v>11398</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="8">
+        <v>11352</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="8">
+        <v>11349</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="8">
+        <v>11817</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8">
+        <v>11399</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="8">
+        <v>11818</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8">
+        <v>11367</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="8">
+        <v>11366</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="8">
+        <v>11362</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="8">
+        <v>11361</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="8">
+        <v>11365</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="8">
+        <v>11364</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="8">
+        <v>11357</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="8">
+        <v>11380</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="8">
+        <v>11458</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="8">
+        <v>11382</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="8">
+        <v>11383</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="8">
+        <v>11405</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="8">
+        <v>11404</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="8">
+        <v>11396</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="8">
+        <v>11395</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="8">
+        <v>11375</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="8">
+        <v>11374</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="8">
+        <v>11377</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="8">
+        <v>11376</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="8">
+        <v>11379</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="8">
+        <v>11378</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="8">
+        <v>11363</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="8">
+        <v>11390</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="8">
+        <v>11392</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="8">
+        <v>11391</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="8">
+        <v>11351</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="8">
+        <v>11350</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="8">
+        <v>11386</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="8">
+        <v>11329</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="8">
+        <v>11333</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="8">
+        <v>11335</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="8">
+        <v>11334</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="8">
+        <v>11346</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="8">
+        <v>11345</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="8">
+        <v>11385</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="8">
+        <v>11373</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="8">
+        <v>11415</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="8">
+        <v>11456</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="8">
+        <v>12358</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="8">
+        <v>12363</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="8">
+        <v>12359</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="8">
+        <v>12364</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="8">
+        <v>11360</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="8">
+        <v>11423</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="8">
+        <v>11449</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="8">
+        <v>11814</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="8">
+        <v>11813</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="8">
+        <v>11421</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="8">
+        <v>12265</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="8">
+        <v>12264</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="8">
+        <v>12266</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="8">
+        <v>12362</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="8">
+        <v>12367</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="8">
+        <v>12360</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="8">
+        <v>12365</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="8">
+        <v>12361</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="8">
+        <v>12366</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="8">
+        <v>12582</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="8">
+        <v>12682</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="8">
+        <v>12685</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="8">
+        <v>12678</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="8">
+        <v>12676</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="8">
+        <v>12673</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="8">
+        <v>12687</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="8">
+        <v>12692</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="8">
+        <v>12695</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="8">
+        <v>12694</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="8">
+        <v>12683</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="8">
+        <v>12680</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="8">
+        <v>12674</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="8">
+        <v>12691</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="8">
+        <v>12689</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="8">
+        <v>12690</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="8">
+        <v>12686</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" s="8">
+        <v>12677</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="8">
+        <v>12675</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="8">
+        <v>12684</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="8">
+        <v>12681</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="8">
+        <v>12688</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="8">
+        <v>12679</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="8">
+        <v>12693</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="8">
+        <v>12698</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="8">
+        <v>12699</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" s="8">
+        <v>12701</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="8">
+        <v>12697</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="8">
+        <v>12696</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="8">
+        <v>12702</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="8">
+        <v>12703</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="8">
+        <v>12700</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="8">
+        <v>12704</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="8">
+        <v>12825</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="8">
+        <v>12931</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="8">
+        <v>12932</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="8">
+        <v>12934</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="8">
+        <v>12933</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="8">
+        <v>12952</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="8">
+        <v>12951</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="8">
+        <v>12349</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="8">
+        <v>12562</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F168" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="8">
+        <v>35</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="8">
+        <v>37</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="8">
+        <v>127</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="8">
+        <v>171</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="8">
+        <v>311</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="8">
+        <v>406</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="8">
+        <v>731</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="8">
+        <v>1125</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="8">
+        <v>1949</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="8">
+        <v>3692</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="8">
+        <v>5123</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="8">
+        <v>5436</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="8">
+        <v>11867</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="8">
+        <v>12375</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="8">
+        <v>12376</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="8">
+        <v>12377</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="8">
+        <v>12379</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -581,5 +6764,8 @@
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;6&amp;K000000 Clasificación: Uso Interno. Documento Claro Colombia</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>